--- a/data/trans_camb/P1416-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P1416-Provincia-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>0.7524865981807766</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4.829095974245937</v>
+        <v>4.829095974245941</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>5.986490913317154</v>
@@ -655,7 +655,7 @@
         <v>4.213455881339712</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.7113082020926954</v>
+        <v>0.7113082020926947</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>3.826233627732203</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.221831840755899</v>
+        <v>-2.751534973374962</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.073801242789081</v>
+        <v>-3.273603903092388</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.4930910478325262</v>
+        <v>0.136689783283889</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.180217967733337</v>
+        <v>1.200992406724753</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-0.3877096685646607</v>
+        <v>-0.070099446673155</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-3.244578089139055</v>
+        <v>-3.217796341740313</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.7901992356317262</v>
+        <v>0.5546828080057244</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.4967429720513601</v>
+        <v>-0.8218007108626569</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-0.2333943220231139</v>
+        <v>-0.06797972603820965</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.89878207142756</v>
+        <v>5.518129836991465</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.107663976693539</v>
+        <v>4.684680348722735</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>10.5523637174427</v>
+        <v>10.44294077774003</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>10.49511349320516</v>
+        <v>11.01247031077365</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>8.921692081214765</v>
+        <v>9.044108134900968</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>4.426760902927604</v>
+        <v>4.077665062037412</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>7.033542473033432</v>
+        <v>6.911973534616791</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>5.536039797355684</v>
+        <v>5.541808670636335</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>6.032585490824988</v>
+        <v>6.186263474177284</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.1353418417870125</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.868558649284645</v>
+        <v>0.8685586492846458</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>1.150431311298249</v>
@@ -760,7 +760,7 @@
         <v>0.8097049915976648</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1366929708103854</v>
+        <v>0.1366929708103853</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.7104226709060731</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.3001270746613342</v>
+        <v>-0.3403779789240788</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.4440195482961474</v>
+        <v>-0.4408612026826981</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.008864707601389323</v>
+        <v>-0.05236370866446736</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.1452567167896587</v>
+        <v>0.1666104837599128</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1439570740083129</v>
+        <v>-0.07789303783392613</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.4405607674406616</v>
+        <v>-0.4496800682643304</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.08477280812662875</v>
+        <v>0.05095205459435668</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1019217535982856</v>
+        <v>-0.1499520563880481</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.1016718767569148</v>
+        <v>-0.06068772300162742</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.682925748723265</v>
+        <v>1.49532273360319</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.618221237522664</v>
+        <v>1.3617358927107</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>2.650968452944813</v>
+        <v>2.637895369714947</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>3.219176471160489</v>
+        <v>3.487952659028836</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>2.544309048490776</v>
+        <v>3.004295465306301</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.445844319075086</v>
+        <v>1.285143708396941</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.731385351172394</v>
+        <v>1.758340030301446</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.376166208013268</v>
+        <v>1.31091036397358</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.413200160081491</v>
+        <v>1.478447908262828</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-2.908749892461655</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5.652091662493622</v>
+        <v>5.652091662493623</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>-3.357798100000771</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-4.020830979879862</v>
+        <v>-3.994789851368803</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-6.060615412533369</v>
+        <v>-5.979089025089695</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.856507150948957</v>
+        <v>1.810128692719195</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-6.77373225403006</v>
+        <v>-7.1319259312128</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-6.744287806372001</v>
+        <v>-6.728845983025511</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-1.246464444046416</v>
+        <v>-1.436115172579721</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-4.713125065071744</v>
+        <v>-4.507875249566806</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-5.306609611244417</v>
+        <v>-5.52143350771523</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>1.228623635352611</v>
+        <v>1.300689016405039</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.774332148699389</v>
+        <v>2.831588249866592</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-0.253395734545134</v>
+        <v>-0.09432266044475172</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>10.47726431519181</v>
+        <v>10.60379922128942</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1253516888660271</v>
+        <v>0.08936433673946526</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2768100251020903</v>
+        <v>0.1911413393138802</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>6.026231087760511</v>
+        <v>5.648112852573122</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.4142826938503974</v>
+        <v>0.5383315062144753</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-0.5439532826820112</v>
+        <v>-0.9898080018781997</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>6.899273915499999</v>
+        <v>6.971189024333898</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.4422381436535297</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.859328102102791</v>
+        <v>0.8593281021027912</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.3200647145429907</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.4980388169408715</v>
+        <v>-0.4962969424843021</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.7057134385537479</v>
+        <v>-0.7019432286637918</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.1760793441761756</v>
+        <v>0.1994248717554688</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.5452224511971303</v>
+        <v>-0.5571580431529916</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5417439399209856</v>
+        <v>-0.5390463541716811</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.103325122577254</v>
+        <v>-0.1217479794834852</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.4766969647436956</v>
+        <v>-0.4601801403910337</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.5408485674637533</v>
+        <v>-0.5569918683313335</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.1253915546150876</v>
+        <v>0.1236798845819334</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.6012573829162393</v>
+        <v>0.5624979900069271</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.01424379586275052</v>
+        <v>0.03582172096473874</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>2.051696917322281</v>
+        <v>2.118046257995778</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.01507221258275225</v>
+        <v>0.02728789802578953</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.0318073613608091</v>
+        <v>0.04978031675390263</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.6774929858880415</v>
+        <v>0.6340551053128204</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.06662357496273516</v>
+        <v>0.0817089024499939</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.05888097601094609</v>
+        <v>-0.1106538910717879</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.912050464237637</v>
+        <v>0.9378068161041533</v>
       </c>
     </row>
     <row r="16">
@@ -1092,7 +1092,7 @@
         <v>-1.49392236237087</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>3.972952766432333</v>
+        <v>3.97295276643233</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-3.69431733185495</v>
+        <v>-3.5493343035246</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-3.173122210172992</v>
+        <v>-3.38134031578696</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.9484171412806653</v>
+        <v>1.157556453582497</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.994002235825282</v>
+        <v>-2.705913727311487</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-6.43948886560156</v>
+        <v>-6.361516934624656</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-1.063367936663096</v>
+        <v>-0.7377651667125525</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-2.339686898846245</v>
+        <v>-2.601504299268115</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-3.656449686899932</v>
+        <v>-3.870148368951507</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>1.143803786202198</v>
+        <v>1.165402786316398</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.902671061928632</v>
+        <v>2.95222738785514</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.402562195613068</v>
+        <v>3.129214151585497</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>8.781367734883775</v>
+        <v>9.356708762509726</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.950723801605763</v>
+        <v>5.105765657034481</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.27444836501648</v>
+        <v>0.5408317740890747</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>6.837190931022717</v>
+        <v>6.866588689576719</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.795095411075688</v>
+        <v>2.831247897908568</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.8784146037571809</v>
+        <v>0.940936392058597</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>6.910318087571948</v>
+        <v>6.762926543307474</v>
       </c>
     </row>
     <row r="19">
@@ -1197,7 +1197,7 @@
         <v>-0.2605154716296447</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.6928175719030272</v>
+        <v>0.6928175719030267</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.6221592027565366</v>
+        <v>-0.6221672868610024</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.539220481897547</v>
+        <v>-0.559025705652327</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.05535367511105022</v>
+        <v>0.1291845480500843</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.3703585272503422</v>
+        <v>-0.3286994375603219</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.6957599776263295</v>
+        <v>-0.6906187775847225</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1086385757805659</v>
+        <v>-0.09231565114216671</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.3354759135192891</v>
+        <v>-0.3538166431348839</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.5269153163363247</v>
+        <v>-0.5408980031759208</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.13940015946804</v>
+        <v>0.152760339081325</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.060434632287613</v>
+        <v>1.110627856402429</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.315647701139739</v>
+        <v>1.146013610912486</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>3.285631167123683</v>
+        <v>3.527947216171754</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.9848438944124557</v>
+        <v>0.9909343044114657</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.09531017427635405</v>
+        <v>0.1298057062318242</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.340993466275227</v>
+        <v>1.330449497289909</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.6528079481468412</v>
+        <v>0.6203537079467879</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.2145873326099803</v>
+        <v>0.2232258430901241</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.558675378367369</v>
+        <v>1.488884062318607</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>-3.282025326877428</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-3.776665317137847</v>
+        <v>-3.776665317137848</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>-3.895724671477744</v>
@@ -1297,7 +1297,7 @@
         <v>-2.445377128808468</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-5.842884799804293</v>
+        <v>-5.842884799804294</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>-4.015564048573062</v>
@@ -1306,7 +1306,7 @@
         <v>-2.84640643009031</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-4.809942470455901</v>
+        <v>-4.809942470455903</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-8.091265620658957</v>
+        <v>-7.94154857747868</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-7.485340552265862</v>
+        <v>-7.259512924793802</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-7.43975766493161</v>
+        <v>-8.112540995835676</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-8.065018489058152</v>
+        <v>-8.415519951913343</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-6.899874036960293</v>
+        <v>-7.42117809188507</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-10.20984101237024</v>
+        <v>-10.00708695153077</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-6.912669270600187</v>
+        <v>-6.710550555488696</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-5.918160210117277</v>
+        <v>-5.753914751569504</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-7.402296225385176</v>
+        <v>-7.664022052022657</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-0.4503997335316122</v>
+        <v>-0.6367201381375276</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.839254687299996</v>
+        <v>0.3062744222565031</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.317735027118496</v>
+        <v>0.7719206278485338</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.233607167211203</v>
+        <v>0.1404682107730996</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.813681419093946</v>
+        <v>1.734145229485158</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-2.139127484519635</v>
+        <v>-1.867077432829022</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>-1.325854972721501</v>
+        <v>-1.099541045027509</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1838464126275038</v>
+        <v>0.2231235025822473</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-1.391540041741835</v>
+        <v>-1.77403982610355</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.382831736607266</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.4405290020476157</v>
+        <v>-0.4405290020476159</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.3400584467975998</v>
@@ -1402,7 +1402,7 @@
         <v>-0.2134573714475428</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.510026374395977</v>
+        <v>-0.5100263743959771</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>-0.3999655313364368</v>
@@ -1411,7 +1411,7 @@
         <v>-0.2835129626721</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.4790886591828158</v>
+        <v>-0.479088659182816</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.7251065852735908</v>
+        <v>-0.735087002133236</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.6820772323683526</v>
+        <v>-0.6688559187676524</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.7395607046708342</v>
+        <v>-0.7604426837310171</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.5892190648401424</v>
+        <v>-0.5927824776732011</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.4937200250560439</v>
+        <v>-0.5087941583999618</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.7061232105069354</v>
+        <v>-0.6987816720185223</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.5899834264968991</v>
+        <v>-0.5834510477249376</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.5066622596705492</v>
+        <v>-0.4900696856245914</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.6438036798642086</v>
+        <v>-0.6630110299316823</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.02957373552260696</v>
+        <v>-0.07693022507341592</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.1403206607810864</v>
+        <v>0.1031807031940677</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.2341782491070409</v>
+        <v>0.2411964783564353</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.02568964690132712</v>
+        <v>0.03873123633802913</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.1982812646854793</v>
+        <v>0.2194631128051467</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.2090584927175144</v>
+        <v>-0.1884234203919949</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.1240773020489653</v>
+        <v>-0.1218177857093346</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.0400245282288714</v>
+        <v>0.02859395921855307</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.137809979474698</v>
+        <v>-0.1987289845504539</v>
       </c>
     </row>
     <row r="28">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-6.103798260453217</v>
+        <v>-6.78264339351137</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-8.655868155673076</v>
+        <v>-8.045591450867985</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-4.887451490051344</v>
+        <v>-4.447373017543249</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-7.54077180343079</v>
+        <v>-7.411215855423392</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-10.43634153778267</v>
+        <v>-10.92285929528151</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-7.318078475549912</v>
+        <v>-6.790991037873415</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-5.123590235806128</v>
+        <v>-4.972645887970768</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-7.520051813432606</v>
+        <v>-7.940250509089336</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-4.191924346370125</v>
+        <v>-4.663977571780468</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>4.231595766379193</v>
+        <v>4.047618724686392</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.600890616825323</v>
+        <v>2.203379591343769</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>5.80967768852771</v>
+        <v>5.829469288362616</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>5.18427836847551</v>
+        <v>5.429016474294896</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>1.744864423565453</v>
+        <v>1.390686472401589</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>4.041702560568634</v>
+        <v>3.965713284454316</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>3.196140944596691</v>
+        <v>3.231944025414476</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.2400626513981695</v>
+        <v>0.03286676766815878</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>3.722110026579222</v>
+        <v>3.778590325698416</v>
       </c>
     </row>
     <row r="31">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.553269802023531</v>
+        <v>-0.5605237641846639</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.7109152044328274</v>
+        <v>-0.6952527696860641</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.4085881636765539</v>
+        <v>-0.3843386903465921</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.484147502254491</v>
+        <v>-0.465875990470854</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.6435908915974773</v>
+        <v>-0.6320180676424345</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.4169187803079988</v>
+        <v>-0.4089070995871072</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.3821672883300393</v>
+        <v>-0.3979889620938139</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.5772880014363551</v>
+        <v>-0.6117841270504675</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.3082376871442082</v>
+        <v>-0.3492328876079509</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.7647694360604101</v>
+        <v>0.7652927724584487</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.3090927954904708</v>
+        <v>0.41345702316105</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.041659869246565</v>
+        <v>1.014191342701329</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.5844224196254452</v>
+        <v>0.6013808414366977</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.2188982356688608</v>
+        <v>0.2055956997705786</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.4584270458459199</v>
+        <v>0.4633342488165283</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.3611524036586277</v>
+        <v>0.4007689546460806</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.03768461318700185</v>
+        <v>0.01420171933104417</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.4459756070642489</v>
+        <v>0.4654465978297728</v>
       </c>
     </row>
     <row r="34">
@@ -1716,7 +1716,7 @@
         <v>0.7351643733384005</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>8.399978162346311</v>
+        <v>8.399978162346308</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>-3.359338561495226</v>
@@ -1725,7 +1725,7 @@
         <v>-1.955279709942263</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>8.812121902233978</v>
+        <v>8.812121902233981</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>-1.564436206513123</v>
@@ -1734,7 +1734,7 @@
         <v>-0.6257037487239867</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>8.556801313249887</v>
+        <v>8.556801313249892</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-3.577561136774517</v>
+        <v>-3.389420477575693</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-3.366167992999993</v>
+        <v>-3.473137104030188</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>3.70733236811116</v>
+        <v>3.727372997726414</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-7.484328655782376</v>
+        <v>-7.710489563020636</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-6.176563176102299</v>
+        <v>-6.586336815719303</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>4.13842203467253</v>
+        <v>3.408300500401698</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-4.501522234524098</v>
+        <v>-4.715633719055023</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-3.584007880826646</v>
+        <v>-4.054642614596875</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>5.215804295645709</v>
+        <v>4.883124677369126</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>4.444771908549124</v>
+        <v>4.617358793268992</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>4.874307181193704</v>
+        <v>4.352377691883815</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>13.02093958098815</v>
+        <v>13.20361749176758</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>0.955862696099854</v>
+        <v>1.014225066429985</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>2.832008187334247</v>
+        <v>2.67922158180275</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>13.6671509759431</v>
+        <v>13.68593158965307</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>1.378594872731401</v>
+        <v>1.701660511871463</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>2.685455122662807</v>
+        <v>2.461156470437302</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>11.97249501371314</v>
+        <v>11.6603747446602</v>
       </c>
     </row>
     <row r="37">
@@ -1821,7 +1821,7 @@
         <v>0.1330058965181951</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>1.519723570312156</v>
+        <v>1.519723570312155</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>-0.3692132570878867</v>
@@ -1830,7 +1830,7 @@
         <v>-0.2148980154903828</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.9685097735225503</v>
+        <v>0.9685097735225505</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>-0.2132306395052691</v>
@@ -1839,7 +1839,7 @@
         <v>-0.08528261486521709</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>1.166280995382022</v>
+        <v>1.166280995382023</v>
       </c>
     </row>
     <row r="38">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.5013951426090458</v>
+        <v>-0.5096815338221264</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.4871715406157757</v>
+        <v>-0.4908244252871573</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>0.3739604812990104</v>
+        <v>0.4411310171028794</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.6718459122737661</v>
+        <v>-0.6718925511387779</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.5562641915230835</v>
+        <v>-0.5674277961187202</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.341364416753866</v>
+        <v>0.260959705001289</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.4963862111028066</v>
+        <v>-0.51826964443906</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.3973788470230034</v>
+        <v>-0.4427322370914928</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.5575574438534944</v>
+        <v>0.5093349777983417</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1.321203493643919</v>
+        <v>1.417016892322778</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1.40069611669221</v>
+        <v>1.169478998054016</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>3.669932655624277</v>
+        <v>3.741206937910328</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.1499372776921389</v>
+        <v>0.1684858200435602</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.4468231704296462</v>
+        <v>0.4294924922180909</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>2.127256922601493</v>
+        <v>2.105429954267679</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.2491798386432155</v>
+        <v>0.3104626380985341</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.4822035001803214</v>
+        <v>0.4519976712573628</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>2.08352244806896</v>
+        <v>2.038808487107899</v>
       </c>
     </row>
     <row r="40">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-3.264574652560733</v>
+        <v>-2.977185065208206</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-3.685031585131767</v>
+        <v>-3.598790388357343</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>5.007088125768928</v>
+        <v>4.496479814863501</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-3.368490996328959</v>
+        <v>-3.474184790372816</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-1.240456310794525</v>
+        <v>-1.554143427507684</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>7.844915093122077</v>
+        <v>8.06619103412846</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-2.475469816197399</v>
+        <v>-2.649089082680746</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-1.842158578110281</v>
+        <v>-1.875090482930031</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>7.328025597695144</v>
+        <v>7.25788753527516</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>1.524721698440551</v>
+        <v>1.437721422407489</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>0.8804197869418672</v>
+        <v>0.7898676149003119</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>11.27082010613345</v>
+        <v>10.8637377949598</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>2.105835912664623</v>
+        <v>1.909112240425061</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>4.399683625997378</v>
+        <v>3.910961980210301</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>14.10819114154532</v>
+        <v>14.2413368521307</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>0.9831925851844683</v>
+        <v>0.8334001024467134</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>1.792550101257916</v>
+        <v>1.684592653508131</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>12.01020206430666</v>
+        <v>11.87615925227228</v>
       </c>
     </row>
     <row r="43">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.5903164345859564</v>
+        <v>-0.5590097873304597</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.6482800748141725</v>
+        <v>-0.6529660676999404</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.8306764909751884</v>
+        <v>0.7435444903447948</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.4344465281634242</v>
+        <v>-0.4518276350779142</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.1711600782268064</v>
+        <v>-0.1980056953364203</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.9704699447984723</v>
+        <v>0.9735995898888299</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.3885662589017449</v>
+        <v>-0.4119783146413355</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.2919060443421187</v>
+        <v>-0.3017162165194356</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>1.135515373750999</v>
+        <v>1.09955861518101</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.5302482897198172</v>
+        <v>0.4798840315934401</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.2915406763007113</v>
+        <v>0.2891900744198601</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>3.709992292249322</v>
+        <v>3.390694912552684</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.4289868881445344</v>
+        <v>0.3972590954164976</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.8602955608781687</v>
+        <v>0.8142097341171938</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>2.874644230636106</v>
+        <v>2.792233155557645</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.2405675645536678</v>
+        <v>0.1975616048584652</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.3861179950048505</v>
+        <v>0.3841200086004593</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>2.610281269721733</v>
+        <v>2.598892189962634</v>
       </c>
     </row>
     <row r="46">
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-6.754691626820051</v>
+        <v>-6.740553609093887</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-5.631213815543938</v>
+        <v>-5.680913602463118</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-5.598275311240375</v>
+        <v>-5.478145141514271</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-9.263848315139905</v>
+        <v>-9.508324149023291</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-6.58398824977669</v>
+        <v>-6.361224399402889</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-4.493504806216033</v>
+        <v>-4.828083636512897</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-7.097234712536178</v>
+        <v>-6.940738326013375</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-5.29788112192543</v>
+        <v>-5.058927906111325</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-4.139363481352148</v>
+        <v>-4.005905795013372</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>-1.489994340337634</v>
+        <v>-1.665287442584079</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>0.03478284179541796</v>
+        <v>-0.1187491832774235</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>0.3810958484769156</v>
+        <v>-0.03026678357694552</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>-3.243455785749879</v>
+        <v>-3.274331777945748</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>-0.2399434912856714</v>
+        <v>-0.1066895909708741</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>1.517470491579126</v>
+        <v>1.451786364683944</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>-3.089254574432436</v>
+        <v>-2.968009845076384</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>-0.8869870941632459</v>
+        <v>-1.107019218631375</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>-0.03663727140221302</v>
+        <v>0.253085128832533</v>
       </c>
     </row>
     <row r="49">
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.6269689150559383</v>
+        <v>-0.6421061381086425</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.5060904206695521</v>
+        <v>-0.5234832472138801</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.4984262293036498</v>
+        <v>-0.5172136220110438</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.6368752282223835</v>
+        <v>-0.6364091747144953</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.4612762519150958</v>
+        <v>-0.4336719734578928</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.3103448996869544</v>
+        <v>-0.3285570548673958</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.5883779316574577</v>
+        <v>-0.5878488822612189</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.4316365035858715</v>
+        <v>-0.4210831293594985</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.3460327308306472</v>
+        <v>-0.3409103427127625</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>-0.1656350036978843</v>
+        <v>-0.2103472761180579</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.03181221088901663</v>
+        <v>0.001607231271476136</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.06622796668496855</v>
+        <v>0.01888539745559795</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>-0.288362110233804</v>
+        <v>-0.2904659728720138</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>-0.0194601102250037</v>
+        <v>0.002256475662855862</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.1517576258277877</v>
+        <v>0.1440563003927347</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>-0.3211194462519518</v>
+        <v>-0.3148684201244479</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>-0.08402080578554856</v>
+        <v>-0.1140001146417534</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>-0.004304511619861342</v>
+        <v>0.02601004929652615</v>
       </c>
     </row>
     <row r="52">
@@ -2358,7 +2358,7 @@
         <v>-1.758633924335239</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>3.030762480443475</v>
+        <v>3.030762480443473</v>
       </c>
       <c r="F52" s="5" t="n">
         <v>-2.274120929102804</v>
@@ -2367,7 +2367,7 @@
         <v>-1.645162963554334</v>
       </c>
       <c r="H52" s="5" t="n">
-        <v>2.386260800093995</v>
+        <v>2.386260800093991</v>
       </c>
       <c r="I52" s="5" t="n">
         <v>-1.919632636440706</v>
@@ -2376,7 +2376,7 @@
         <v>-1.6916598938055</v>
       </c>
       <c r="K52" s="5" t="n">
-        <v>2.715798489657269</v>
+        <v>2.715798489657267</v>
       </c>
     </row>
     <row r="53">
@@ -2387,31 +2387,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-2.742654791751413</v>
+        <v>-2.701969501089676</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-2.850660490402253</v>
+        <v>-2.932428009410303</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>1.571420423969398</v>
+        <v>1.740068933093143</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>-3.640080861172969</v>
+        <v>-3.616734032475835</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>-3.008096153058564</v>
+        <v>-3.002683444969905</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>0.9848923484147154</v>
+        <v>1.005579806798209</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>-2.786803775120801</v>
+        <v>-2.77170035685582</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>-2.587902758608513</v>
+        <v>-2.57319303886169</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>1.730316879712269</v>
+        <v>1.736680115114118</v>
       </c>
     </row>
     <row r="54">
@@ -2422,31 +2422,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>-0.3170386205626524</v>
+        <v>-0.3957492301499759</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>-0.5290636918205479</v>
+        <v>-0.6511806065586008</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>4.425436146382986</v>
+        <v>4.677253860416021</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>-0.8917018315597458</v>
+        <v>-0.9184045739598613</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>-0.3185022787056321</v>
+        <v>-0.2684284057437518</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>3.738264564974526</v>
+        <v>3.753074170517726</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>-1.034826361486405</v>
+        <v>-0.9594064180996746</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>-0.7228164987917366</v>
+        <v>-0.8345468394871878</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>3.740633295777942</v>
+        <v>3.753958246306578</v>
       </c>
     </row>
     <row r="55">
@@ -2463,7 +2463,7 @@
         <v>-0.2627811187752506</v>
       </c>
       <c r="E55" s="6" t="n">
-        <v>0.4528669351434456</v>
+        <v>0.4528669351434454</v>
       </c>
       <c r="F55" s="6" t="n">
         <v>-0.2371605486743805</v>
@@ -2472,7 +2472,7 @@
         <v>-0.171568603103814</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.248855244850031</v>
+        <v>0.2488552448500305</v>
       </c>
       <c r="I55" s="6" t="n">
         <v>-0.2351624004985256</v>
@@ -2481,7 +2481,7 @@
         <v>-0.2072348604116213</v>
       </c>
       <c r="K55" s="6" t="n">
-        <v>0.33269578771188</v>
+        <v>0.3326957877118798</v>
       </c>
     </row>
     <row r="56">
@@ -2492,31 +2492,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>-0.381836420064512</v>
+        <v>-0.3730826199264855</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.3973912930217133</v>
+        <v>-0.4013493352584885</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>0.2339930835154063</v>
+        <v>0.2337912089254264</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>-0.3538510597678018</v>
+        <v>-0.350333248164317</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>-0.2911274016321798</v>
+        <v>-0.2907018917968472</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.0929161400540289</v>
+        <v>0.09478389475896247</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>-0.3181378063752947</v>
+        <v>-0.3261704178534273</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>-0.2976231958601824</v>
+        <v>-0.3006700892875983</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>0.1983721823200964</v>
+        <v>0.2029789188458985</v>
       </c>
     </row>
     <row r="57">
@@ -2527,31 +2527,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>-0.05050739996404547</v>
+        <v>-0.06658316619883727</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>-0.09212264950951617</v>
+        <v>-0.1059324163433766</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>0.7492741388099097</v>
+        <v>0.7701473974489347</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>-0.09971647219334726</v>
+        <v>-0.1002796499899323</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>-0.03470728632926545</v>
+        <v>-0.03082742804810055</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.4241117119778347</v>
+        <v>0.4226881914711726</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>-0.1316830170984582</v>
+        <v>-0.1242960932921246</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>-0.08977069898706981</v>
+        <v>-0.1090932789766638</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>0.4848593834615664</v>
+        <v>0.4942252617125444</v>
       </c>
     </row>
     <row r="58">
